--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.211866666666667</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N2">
-        <v>6.6356</v>
+        <v>4.192424</v>
       </c>
       <c r="O2">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P2">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q2">
-        <v>70.58148151213334</v>
+        <v>52.33091009436888</v>
       </c>
       <c r="R2">
-        <v>635.2333336092</v>
+        <v>470.97819084932</v>
       </c>
       <c r="S2">
-        <v>0.279040138566203</v>
+        <v>0.5579054136101383</v>
       </c>
       <c r="T2">
-        <v>0.279040138566203</v>
+        <v>0.5579054136101385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H3">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I3">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J3">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.385444666666666</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N3">
-        <v>7.156333999999999</v>
+        <v>0.234107</v>
       </c>
       <c r="O3">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P3">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q3">
-        <v>76.12041954241532</v>
+        <v>2.922183531403888</v>
       </c>
       <c r="R3">
-        <v>685.0837758817379</v>
+        <v>26.299651782635</v>
       </c>
       <c r="S3">
-        <v>0.3009380358951759</v>
+        <v>0.03115371027931064</v>
       </c>
       <c r="T3">
-        <v>0.300938035895176</v>
+        <v>0.03115371027931065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.420477</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H4">
-        <v>34.261431</v>
+        <v>112.340305</v>
       </c>
       <c r="I4">
-        <v>0.2075697527013293</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J4">
-        <v>0.2075697527013294</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.211866666666667</v>
+        <v>0.034731</v>
       </c>
       <c r="N4">
-        <v>6.6356</v>
+        <v>0.104193</v>
       </c>
       <c r="O4">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P4">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q4">
-        <v>25.26057239373334</v>
+        <v>1.300563710985</v>
       </c>
       <c r="R4">
-        <v>227.3451515436</v>
+        <v>11.705073398865</v>
       </c>
       <c r="S4">
-        <v>0.0998663313662131</v>
+        <v>0.01386544842799324</v>
       </c>
       <c r="T4">
-        <v>0.09986633136621312</v>
+        <v>0.01386544842799324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>34.261431</v>
       </c>
       <c r="I5">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J5">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.385444666666666</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N5">
-        <v>7.156333999999999</v>
+        <v>4.192424</v>
       </c>
       <c r="O5">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P5">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q5">
-        <v>27.24291595043933</v>
+        <v>15.95982728874933</v>
       </c>
       <c r="R5">
-        <v>245.186243553954</v>
+        <v>143.638445598744</v>
       </c>
       <c r="S5">
-        <v>0.1077034213351162</v>
+        <v>0.1701494208417025</v>
       </c>
       <c r="T5">
-        <v>0.1077034213351162</v>
+        <v>0.1701494208417025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6836493333333333</v>
+        <v>11.420477</v>
       </c>
       <c r="H6">
-        <v>2.050948</v>
+        <v>34.261431</v>
       </c>
       <c r="I6">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J6">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.211866666666667</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N6">
-        <v>6.6356</v>
+        <v>0.234107</v>
       </c>
       <c r="O6">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P6">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q6">
-        <v>1.512141172088889</v>
+        <v>0.8912045363463332</v>
       </c>
       <c r="R6">
-        <v>13.6092705488</v>
+        <v>8.020840827117</v>
       </c>
       <c r="S6">
-        <v>0.005978169813831536</v>
+        <v>0.009501226608994807</v>
       </c>
       <c r="T6">
-        <v>0.005978169813831537</v>
+        <v>0.009501226608994807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,51 +853,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6836493333333333</v>
+        <v>11.420477</v>
       </c>
       <c r="H7">
-        <v>2.050948</v>
+        <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J7">
-        <v>0.01242548126969028</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.385444666666666</v>
+        <v>0.034731</v>
       </c>
       <c r="N7">
-        <v>7.156333999999999</v>
+        <v>0.104193</v>
       </c>
       <c r="O7">
-        <v>0.5188782080888727</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P7">
-        <v>0.5188782080888727</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q7">
-        <v>1.630807656070222</v>
+        <v>0.396644586687</v>
       </c>
       <c r="R7">
-        <v>14.677268904632</v>
+        <v>3.569801280183</v>
       </c>
       <c r="S7">
-        <v>0.006447311455858745</v>
+        <v>0.004228670240834302</v>
       </c>
       <c r="T7">
-        <v>0.006447311455858746</v>
+        <v>0.004228670240834302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.899486</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H8">
-        <v>29.698458</v>
+        <v>3.733837</v>
       </c>
       <c r="I8">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J8">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,33 +933,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.211866666666667</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N8">
-        <v>6.6356</v>
+        <v>4.192424</v>
       </c>
       <c r="O8">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P8">
-        <v>0.4811217919111272</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q8">
-        <v>21.89634310053333</v>
+        <v>1.739314205654222</v>
       </c>
       <c r="R8">
-        <v>197.0670879048</v>
+        <v>15.653827850888</v>
       </c>
       <c r="S8">
-        <v>0.08656602953021905</v>
+        <v>0.01854301424442312</v>
       </c>
       <c r="T8">
-        <v>0.08656602953021905</v>
+        <v>0.01854301424442312</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.899486</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H9">
-        <v>29.698458</v>
+        <v>3.733837</v>
       </c>
       <c r="I9">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J9">
-        <v>0.1799253972395612</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,43 +995,43 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.385444666666666</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N9">
-        <v>7.156333999999999</v>
+        <v>0.234107</v>
       </c>
       <c r="O9">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P9">
-        <v>0.5188782080888727</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q9">
-        <v>23.61467608144133</v>
+        <v>0.09712415317322221</v>
       </c>
       <c r="R9">
-        <v>212.532084732972</v>
+        <v>0.8741173785589998</v>
       </c>
       <c r="S9">
-        <v>0.09335936770934211</v>
+        <v>0.001035450955275317</v>
       </c>
       <c r="T9">
-        <v>0.09335936770934213</v>
+        <v>0.001035450955275317</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6568320000000001</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H10">
-        <v>1.970496</v>
+        <v>3.733837</v>
       </c>
       <c r="I10">
-        <v>0.01193807017047708</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J10">
-        <v>0.01193807017047708</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.211866666666667</v>
+        <v>0.034731</v>
       </c>
       <c r="N10">
-        <v>6.6356</v>
+        <v>0.104193</v>
       </c>
       <c r="O10">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="P10">
-        <v>0.4811217919111272</v>
+        <v>0.02299698679504644</v>
       </c>
       <c r="Q10">
-        <v>1.4528248064</v>
+        <v>0.04322663094899999</v>
       </c>
       <c r="R10">
-        <v>13.0754232576</v>
+        <v>0.389039678541</v>
       </c>
       <c r="S10">
-        <v>0.005743665712380708</v>
+        <v>0.0004608437226695531</v>
       </c>
       <c r="T10">
-        <v>0.005743665712380708</v>
+        <v>0.000460843722669553</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6568320000000001</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H11">
-        <v>1.970496</v>
+        <v>30.115763</v>
       </c>
       <c r="I11">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J11">
-        <v>0.01193807017047708</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.385444666666666</v>
+        <v>1.397474666666667</v>
       </c>
       <c r="N11">
-        <v>7.156333999999999</v>
+        <v>4.192424</v>
       </c>
       <c r="O11">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="P11">
-        <v>0.5188782080888727</v>
+        <v>0.9253320219903044</v>
       </c>
       <c r="Q11">
-        <v>1.566836391296</v>
+        <v>14.02867195327911</v>
       </c>
       <c r="R11">
-        <v>14.101527521664</v>
+        <v>126.258047579512</v>
       </c>
       <c r="S11">
-        <v>0.00619440445809637</v>
+        <v>0.1495611678524453</v>
       </c>
       <c r="T11">
-        <v>0.006194404458096371</v>
+        <v>0.1495611678524453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4491346666666667</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H12">
-        <v>1.347404</v>
+        <v>30.115763</v>
       </c>
       <c r="I12">
-        <v>0.00816312415756312</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J12">
-        <v>0.00816312415756312</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,90 +1181,462 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.211866666666667</v>
+        <v>0.07803566666666666</v>
       </c>
       <c r="N12">
-        <v>6.6356</v>
+        <v>0.234107</v>
       </c>
       <c r="O12">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="P12">
-        <v>0.4811217919111272</v>
+        <v>0.05167099121464913</v>
       </c>
       <c r="Q12">
-        <v>0.9934259980444445</v>
+        <v>0.783367880960111</v>
       </c>
       <c r="R12">
-        <v>8.940833982400001</v>
+        <v>7.050310928640999</v>
       </c>
       <c r="S12">
-        <v>0.003927456922279779</v>
+        <v>0.008351568525137822</v>
       </c>
       <c r="T12">
-        <v>0.003927456922279779</v>
+        <v>0.008351568525137822</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.03858766666667</v>
+      </c>
+      <c r="H13">
+        <v>30.115763</v>
+      </c>
+      <c r="I13">
+        <v>0.1616297332180864</v>
+      </c>
+      <c r="J13">
+        <v>0.1616297332180864</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.034731</v>
+      </c>
+      <c r="N13">
+        <v>0.104193</v>
+      </c>
+      <c r="O13">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P13">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q13">
+        <v>0.348650188251</v>
+      </c>
+      <c r="R13">
+        <v>3.137851694259</v>
+      </c>
+      <c r="S13">
+        <v>0.003716996840503211</v>
+      </c>
+      <c r="T13">
+        <v>0.003716996840503211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.327177333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.981532</v>
+      </c>
+      <c r="I14">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="J14">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.397474666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.192424</v>
+      </c>
+      <c r="O14">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="P14">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="Q14">
+        <v>1.854696701507556</v>
+      </c>
+      <c r="R14">
+        <v>16.692270313568</v>
+      </c>
+      <c r="S14">
+        <v>0.01977311933826423</v>
+      </c>
+      <c r="T14">
+        <v>0.01977311933826423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.327177333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.981532</v>
+      </c>
+      <c r="I15">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="J15">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.07803566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.234107</v>
+      </c>
+      <c r="O15">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="P15">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="Q15">
+        <v>0.1035671679915555</v>
+      </c>
+      <c r="R15">
+        <v>0.9321045119239999</v>
+      </c>
+      <c r="S15">
+        <v>0.001104140623401408</v>
+      </c>
+      <c r="T15">
+        <v>0.001104140623401408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.327177333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.981532</v>
+      </c>
+      <c r="I16">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="J16">
+        <v>0.02136867510078605</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.034731</v>
+      </c>
+      <c r="N16">
+        <v>0.104193</v>
+      </c>
+      <c r="O16">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P16">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q16">
+        <v>0.046094195964</v>
+      </c>
+      <c r="R16">
+        <v>0.414847763676</v>
+      </c>
+      <c r="S16">
+        <v>0.0004914151391204146</v>
+      </c>
+      <c r="T16">
+        <v>0.0004914151391204144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.630923</v>
+      </c>
+      <c r="H17">
+        <v>1.892769</v>
+      </c>
+      <c r="I17">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J17">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.397474666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.192424</v>
+      </c>
+      <c r="O17">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="P17">
+        <v>0.9253320219903044</v>
+      </c>
+      <c r="Q17">
+        <v>0.8816989091173333</v>
+      </c>
+      <c r="R17">
+        <v>7.935290182056</v>
+      </c>
+      <c r="S17">
+        <v>0.00939988610333084</v>
+      </c>
+      <c r="T17">
+        <v>0.009399886103330838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H13">
-        <v>1.347404</v>
-      </c>
-      <c r="I13">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J13">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.385444666666666</v>
-      </c>
-      <c r="N13">
-        <v>7.156333999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.5188782080888727</v>
-      </c>
-      <c r="P13">
-        <v>0.5188782080888727</v>
-      </c>
-      <c r="Q13">
-        <v>1.071385895215111</v>
-      </c>
-      <c r="R13">
-        <v>9.642473056936</v>
-      </c>
-      <c r="S13">
-        <v>0.004235667235283341</v>
-      </c>
-      <c r="T13">
-        <v>0.004235667235283341</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.630923</v>
+      </c>
+      <c r="H18">
+        <v>1.892769</v>
+      </c>
+      <c r="I18">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J18">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.07803566666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.234107</v>
+      </c>
+      <c r="O18">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="P18">
+        <v>0.05167099121464913</v>
+      </c>
+      <c r="Q18">
+        <v>0.04923449692033333</v>
+      </c>
+      <c r="R18">
+        <v>0.4431104722829999</v>
+      </c>
+      <c r="S18">
+        <v>0.0005248942225291318</v>
+      </c>
+      <c r="T18">
+        <v>0.0005248942225291317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.630923</v>
+      </c>
+      <c r="H19">
+        <v>1.892769</v>
+      </c>
+      <c r="I19">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="J19">
+        <v>0.01015839274978569</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.034731</v>
+      </c>
+      <c r="N19">
+        <v>0.104193</v>
+      </c>
+      <c r="O19">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="P19">
+        <v>0.02299698679504644</v>
+      </c>
+      <c r="Q19">
+        <v>0.021912586713</v>
+      </c>
+      <c r="R19">
+        <v>0.197213280417</v>
+      </c>
+      <c r="S19">
+        <v>0.000233612423925717</v>
+      </c>
+      <c r="T19">
+        <v>0.0002336124239257169</v>
       </c>
     </row>
   </sheetData>
